--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fengliang/Documents/workspace/Pandas&amp;Matplotlib/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A8863A-6E98-5944-80FF-9E63C212E978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A123FB1-92FA-A843-A58D-30C6376C31D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1040" windowWidth="27840" windowHeight="16860" xr2:uid="{CF2EEDE8-73D7-F943-9BB4-6635B7EC6ED6}"/>
+    <workbookView xWindow="800" yWindow="1040" windowWidth="27840" windowHeight="16860" xr2:uid="{CF2EEDE8-73D7-F943-9BB4-6635B7EC6ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,12 +455,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
